--- a/beta_results.xlsx
+++ b/beta_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,179 +467,179 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13307755464231.89</v>
+        <v>9020844123.096439</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E2" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="B3" t="n">
-        <v>13425056228473.54</v>
+        <v>8287007992.44981</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E3" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="B4" t="n">
-        <v>13542356992715.21</v>
+        <v>7553171861.803186</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E4" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="B5" t="n">
-        <v>13659657756956.87</v>
+        <v>6819335731.156554</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E5" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="B6" t="n">
-        <v>13776958521198.53</v>
+        <v>6085499600.50993</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E6" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="B7" t="n">
-        <v>13894259285440.19</v>
+        <v>5351663469.863297</v>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E7" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B8" t="n">
-        <v>14011560049681.85</v>
+        <v>4617827339.216671</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E8" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="B9" t="n">
-        <v>14128860813923.51</v>
+        <v>3883991208.570043</v>
       </c>
       <c r="C9" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
-        <v>250</v>
+        <v>152.4949329215327</v>
       </c>
       <c r="E9" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="B10" t="n">
-        <v>14246161578165.17</v>
+        <v>3232547939.761079</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D10" t="n">
         <v>250</v>
       </c>
       <c r="E10" t="n">
-        <v>98.433297471759</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -647,21 +647,41 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="B11" t="n">
-        <v>14363462342406.83</v>
+        <v>2661175798.88414</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
         <v>250</v>
       </c>
       <c r="E11" t="n">
-        <v>98.433297471759</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2115056074.041172</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18</v>
+      </c>
+      <c r="D12" t="n">
+        <v>250</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
     </row>
